--- a/branches/update-code-systems/StructureDefinition-hiv-diagnostic-report.xlsx
+++ b/branches/update-code-systems/StructureDefinition-hiv-diagnostic-report.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T09:53:38+00:00</t>
+    <t>2023-03-14T11:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-code-systems/StructureDefinition-hiv-diagnostic-report.xlsx
+++ b/branches/update-code-systems/StructureDefinition-hiv-diagnostic-report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1381" uniqueCount="355">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T11:49:46+00:00</t>
+    <t>2023-03-24T12:30:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -634,6 +634,99 @@
     <t>FiveWs.what[x]</t>
   </si>
   <si>
+    <t>DiagnosticReport.code.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>Test Type</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
     <t>DiagnosticReport.subject</t>
   </si>
   <si>
@@ -918,29 +1011,7 @@
     <t>DiagnosticReport.media.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DiagnosticReport.media.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.media.modifierExtension</t>
@@ -1358,7 +1429,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN33"/>
+  <dimension ref="A1:AN37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1395,7 +1466,7 @@
     <col min="26" max="26" width="53.546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
@@ -3135,11 +3206,11 @@
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>89</v>
@@ -3151,21 +3222,19 @@
         <v>80</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="M16" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>204</v>
-      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>80</v>
       </c>
@@ -3213,7 +3282,7 @@
         <v>80</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>78</v>
@@ -3225,38 +3294,38 @@
         <v>80</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>208</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>210</v>
+        <v>134</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>80</v>
@@ -3265,23 +3334,21 @@
         <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>211</v>
+        <v>135</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>212</v>
+        <v>136</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>215</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>80</v>
       </c>
@@ -3317,62 +3384,62 @@
         <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="AD17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>216</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>217</v>
+        <v>80</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>219</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>221</v>
+        <v>80</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>80</v>
@@ -3384,19 +3451,19 @@
         <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>80</v>
@@ -3445,13 +3512,13 @@
         <v>80</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>80</v>
@@ -3460,28 +3527,28 @@
         <v>101</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>227</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>232</v>
+        <v>80</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
@@ -3500,19 +3567,19 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>80</v>
@@ -3522,7 +3589,7 @@
         <v>80</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>80</v>
+        <v>225</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>80</v>
@@ -3561,7 +3628,7 @@
         <v>80</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -3579,25 +3646,25 @@
         <v>80</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>240</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -3616,19 +3683,17 @@
         <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>246</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>80</v>
@@ -3677,13 +3742,13 @@
         <v>80</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>80</v>
@@ -3692,35 +3757,35 @@
         <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>251</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>80</v>
@@ -3732,19 +3797,19 @@
         <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="L21" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>255</v>
-      </c>
       <c r="N21" t="s" s="2">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>80</v>
@@ -3793,13 +3858,13 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>80</v>
@@ -3808,35 +3873,35 @@
         <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="AM21" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AL21" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>250</v>
-      </c>
       <c r="AN21" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>80</v>
@@ -3845,22 +3910,22 @@
         <v>80</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>80</v>
@@ -3909,13 +3974,13 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
@@ -3924,32 +3989,32 @@
         <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>80</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>89</v>
@@ -3961,22 +4026,22 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="O23" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>271</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>80</v>
@@ -4025,13 +4090,13 @@
         <v>80</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>80</v>
@@ -4043,32 +4108,32 @@
         <v>80</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>80</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>80</v>
+        <v>272</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4077,21 +4142,23 @@
         <v>80</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L24" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N24" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4139,7 +4206,7 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -4154,28 +4221,28 @@
         <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>80</v>
+        <v>279</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
@@ -4194,17 +4261,19 @@
         <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>285</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>286</v>
+      </c>
       <c r="O25" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4253,7 +4322,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>78</v>
@@ -4268,24 +4337,24 @@
         <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>80</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4296,7 +4365,7 @@
         <v>78</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
@@ -4308,16 +4377,20 @@
         <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -4365,28 +4438,28 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>80</v>
+        <v>294</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>292</v>
+        <v>237</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>80</v>
@@ -4394,21 +4467,21 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>134</v>
+        <v>296</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>80</v>
@@ -4420,18 +4493,20 @@
         <v>80</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>135</v>
+        <v>297</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>136</v>
+        <v>298</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
       </c>
@@ -4491,16 +4566,16 @@
         <v>80</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>80</v>
@@ -4508,14 +4583,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -4528,26 +4603,24 @@
         <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>135</v>
+        <v>305</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -4595,7 +4668,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -4607,7 +4680,7 @@
         <v>80</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>140</v>
+        <v>101</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>80</v>
@@ -4616,7 +4689,7 @@
         <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>132</v>
+        <v>309</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>80</v>
@@ -4624,21 +4697,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>80</v>
@@ -4647,22 +4720,20 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>302</v>
+        <v>313</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>304</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -4711,13 +4782,13 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>80</v>
@@ -4729,10 +4800,10 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>80</v>
@@ -4740,10 +4811,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4751,7 +4822,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>89</v>
@@ -4763,16 +4834,16 @@
         <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>308</v>
+        <v>200</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>309</v>
+        <v>201</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>310</v>
+        <v>202</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4823,10 +4894,10 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>307</v>
+        <v>203</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>89</v>
@@ -4835,7 +4906,7 @@
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -4844,7 +4915,7 @@
         <v>80</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>311</v>
+        <v>204</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>80</v>
@@ -4852,21 +4923,21 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>313</v>
+        <v>134</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -4878,18 +4949,18 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>288</v>
+        <v>135</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>314</v>
+        <v>136</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>316</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>80</v>
       </c>
@@ -4937,28 +5008,28 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>318</v>
+        <v>204</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>80</v>
@@ -4973,7 +5044,7 @@
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>80</v>
+        <v>320</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -4986,22 +5057,26 @@
         <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>180</v>
+        <v>135</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
+        <v>322</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O32" t="s" s="2">
+        <v>144</v>
+      </c>
       <c r="P32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5025,31 +5100,31 @@
         <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>323</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>319</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5061,16 +5136,16 @@
         <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>101</v>
+        <v>140</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>324</v>
+        <v>132</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>80</v>
@@ -5078,10 +5153,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5092,7 +5167,7 @@
         <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5104,19 +5179,19 @@
         <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L33" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>328</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>330</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5165,13 +5240,13 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
@@ -5183,12 +5258,466 @@
         <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>317</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="L34" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AN34" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="P35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="P37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q37" s="2"/>
+      <c r="R37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>80</v>
       </c>
     </row>
